--- a/test.xlsx
+++ b/test.xlsx
@@ -2269,7 +2269,7 @@
     <xf borderId="17" fillId="0" fontId="31" numFmtId="0"/>
     <xf borderId="17" fillId="0" fontId="31" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="260">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2842,7 +2842,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="15" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="35" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="11"/>
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="0" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="35" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="11"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -13748,8 +13753,8 @@
         <f>K2*J2</f>
         <v/>
       </c>
-      <c r="M2" s="108" t="n">
-        <v>43224</v>
+      <c r="M2" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N2" s="114" t="n">
         <v>7</v>
@@ -13770,10 +13775,10 @@
         <v>1</v>
       </c>
       <c r="T2" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="104">
         <f>SUM(O2:U2)</f>
@@ -13829,17 +13834,17 @@
         <f>K3*J3</f>
         <v/>
       </c>
-      <c r="M3" s="108" t="n">
-        <v>43224</v>
+      <c r="M3" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N3" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O3" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="137" t="n">
         <v>1</v>
@@ -13848,13 +13853,13 @@
         <v>1</v>
       </c>
       <c r="S3" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="104">
         <f>SUM(O3:U3)</f>
@@ -13910,17 +13915,17 @@
         <f>K4*J4</f>
         <v/>
       </c>
-      <c r="M4" s="108" t="n">
-        <v>43224</v>
+      <c r="M4" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N4" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O4" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="137" t="n">
         <v>1</v>
@@ -13929,13 +13934,13 @@
         <v>1</v>
       </c>
       <c r="S4" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="104">
         <f>SUM(O4:U4)</f>
@@ -13991,17 +13996,17 @@
         <f>K5*J5</f>
         <v/>
       </c>
-      <c r="M5" s="108" t="n">
-        <v>43224</v>
+      <c r="M5" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N5" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="137" t="n">
         <v>1</v>
@@ -14010,13 +14015,13 @@
         <v>1</v>
       </c>
       <c r="S5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="104">
         <f>SUM(O5:U5)</f>
@@ -14072,17 +14077,17 @@
         <f>K6*J6</f>
         <v/>
       </c>
-      <c r="M6" s="108" t="n">
-        <v>43224</v>
+      <c r="M6" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N6" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O6" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="137" t="n">
         <v>1</v>
@@ -14091,13 +14096,13 @@
         <v>1</v>
       </c>
       <c r="S6" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="104">
         <f>SUM(O6:U6)</f>
@@ -14153,17 +14158,17 @@
         <f>K7*J7</f>
         <v/>
       </c>
-      <c r="M7" s="108" t="n">
-        <v>43224</v>
+      <c r="M7" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N7" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O7" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="137" t="n">
         <v>1</v>
@@ -14172,13 +14177,13 @@
         <v>1</v>
       </c>
       <c r="S7" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="104">
         <f>SUM(O7:U7)</f>
@@ -14234,17 +14239,17 @@
         <f>K8*J8</f>
         <v/>
       </c>
-      <c r="M8" s="108" t="n">
-        <v>43224</v>
+      <c r="M8" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N8" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O8" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="137" t="n">
         <v>1</v>
@@ -14253,13 +14258,13 @@
         <v>1</v>
       </c>
       <c r="S8" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="104">
         <f>SUM(O8:U8)</f>
@@ -14315,17 +14320,17 @@
         <f>K9*J9</f>
         <v/>
       </c>
-      <c r="M9" s="108" t="n">
-        <v>43224</v>
+      <c r="M9" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N9" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O9" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="137" t="n">
         <v>1</v>
@@ -14334,13 +14339,13 @@
         <v>1</v>
       </c>
       <c r="S9" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="104">
         <f>SUM(O9:U9)</f>
@@ -14396,17 +14401,17 @@
         <f>K10*J10</f>
         <v/>
       </c>
-      <c r="M10" s="108" t="n">
-        <v>43224</v>
+      <c r="M10" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N10" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O10" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="137" t="n">
         <v>1</v>
@@ -14421,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="104">
         <f>SUM(O10:U10)</f>
@@ -14477,17 +14482,17 @@
         <f>K11*J11</f>
         <v/>
       </c>
-      <c r="M11" s="108" t="n">
-        <v>43224</v>
+      <c r="M11" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N11" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O11" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="137" t="n">
         <v>1</v>
@@ -14496,13 +14501,13 @@
         <v>1</v>
       </c>
       <c r="S11" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="104">
         <f>SUM(O11:U11)</f>
@@ -14558,17 +14563,17 @@
         <f>K12*J12</f>
         <v/>
       </c>
-      <c r="M12" s="108" t="n">
-        <v>43224</v>
+      <c r="M12" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N12" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O12" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="137" t="n">
         <v>1</v>
@@ -14577,13 +14582,13 @@
         <v>1</v>
       </c>
       <c r="S12" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="104">
         <f>SUM(O12:U12)</f>
@@ -14639,14 +14644,14 @@
         <f>K13*J13</f>
         <v/>
       </c>
-      <c r="M13" s="108" t="n">
-        <v>43224</v>
+      <c r="M13" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N13" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O13" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="137" t="n">
         <v>1</v>
@@ -14658,13 +14663,13 @@
         <v>1</v>
       </c>
       <c r="S13" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="104">
         <f>SUM(O13:U13)</f>
@@ -14720,17 +14725,17 @@
         <f>K14*J14</f>
         <v/>
       </c>
-      <c r="M14" s="108" t="n">
-        <v>43224</v>
+      <c r="M14" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N14" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O14" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="137" t="n">
         <v>1</v>
@@ -14739,13 +14744,13 @@
         <v>1</v>
       </c>
       <c r="S14" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="104">
         <f>SUM(O14:U14)</f>
@@ -14801,17 +14806,17 @@
         <f>K15*J15</f>
         <v/>
       </c>
-      <c r="M15" s="108" t="n">
-        <v>43224</v>
+      <c r="M15" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N15" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O15" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="137" t="n">
         <v>1</v>
@@ -14820,13 +14825,13 @@
         <v>1</v>
       </c>
       <c r="S15" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="104">
         <f>SUM(O15:U15)</f>
@@ -14882,17 +14887,17 @@
         <f>K16*J16</f>
         <v/>
       </c>
-      <c r="M16" s="108" t="n">
-        <v>43224</v>
+      <c r="M16" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N16" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O16" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="137" t="n">
         <v>1</v>
@@ -14901,13 +14906,13 @@
         <v>1</v>
       </c>
       <c r="S16" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="104">
         <f>SUM(O16:U16)</f>
@@ -14963,32 +14968,32 @@
         <f>K17*J17</f>
         <v/>
       </c>
-      <c r="M17" s="108" t="n">
-        <v>43224</v>
+      <c r="M17" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N17" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O17" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="137" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="104">
         <f>SUM(O17:U17)</f>
@@ -15044,17 +15049,17 @@
         <f>K18*J18</f>
         <v/>
       </c>
-      <c r="M18" s="108" t="n">
-        <v>43224</v>
+      <c r="M18" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N18" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O18" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="137" t="n">
         <v>1</v>
@@ -15063,13 +15068,13 @@
         <v>1</v>
       </c>
       <c r="S18" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="104">
         <f>SUM(O18:U18)</f>
@@ -15125,17 +15130,17 @@
         <f>K19*J19</f>
         <v/>
       </c>
-      <c r="M19" s="108" t="n">
-        <v>43224</v>
+      <c r="M19" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N19" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O19" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="137" t="n">
         <v>1</v>
@@ -15144,13 +15149,13 @@
         <v>1</v>
       </c>
       <c r="S19" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="104">
         <f>SUM(O19:U19)</f>
@@ -15206,14 +15211,14 @@
         <f>K20*J20</f>
         <v/>
       </c>
-      <c r="M20" s="108" t="n">
-        <v>43224</v>
+      <c r="M20" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N20" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O20" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="137" t="n">
         <v>1</v>
@@ -15225,13 +15230,13 @@
         <v>1</v>
       </c>
       <c r="S20" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="104">
         <f>SUM(O20:U20)</f>
@@ -15287,17 +15292,17 @@
         <f>K21*J21</f>
         <v/>
       </c>
-      <c r="M21" s="108" t="n">
-        <v>43224</v>
+      <c r="M21" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N21" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O21" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="137" t="n">
         <v>1</v>
@@ -15312,7 +15317,7 @@
         <v>1</v>
       </c>
       <c r="U21" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="104">
         <f>SUM(O21:U21)</f>
@@ -15368,17 +15373,17 @@
         <f>K22*J22</f>
         <v/>
       </c>
-      <c r="M22" s="108" t="n">
-        <v>43224</v>
+      <c r="M22" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N22" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O22" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="137" t="n">
         <v>1</v>
@@ -15387,13 +15392,13 @@
         <v>1</v>
       </c>
       <c r="S22" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="104">
         <f>SUM(O22:U22)</f>
@@ -15449,17 +15454,17 @@
         <f>K23*J23</f>
         <v/>
       </c>
-      <c r="M23" s="108" t="n">
-        <v>43224</v>
+      <c r="M23" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N23" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O23" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="137" t="n">
         <v>1</v>
@@ -15468,13 +15473,13 @@
         <v>1</v>
       </c>
       <c r="S23" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="104">
         <f>SUM(O23:U23)</f>
@@ -15530,17 +15535,17 @@
         <f>K24*J24</f>
         <v/>
       </c>
-      <c r="M24" s="108" t="n">
-        <v>43224</v>
+      <c r="M24" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N24" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O24" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="137" t="n">
         <v>1</v>
@@ -15549,13 +15554,13 @@
         <v>1</v>
       </c>
       <c r="S24" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="104">
         <f>SUM(O24:U24)</f>
@@ -15611,32 +15616,32 @@
         <f>K25*J25</f>
         <v/>
       </c>
-      <c r="M25" s="108" t="n">
-        <v>43224</v>
+      <c r="M25" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N25" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O25" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="137" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="104">
         <f>SUM(O25:U25)</f>
@@ -15692,17 +15697,17 @@
         <f>K26*J26</f>
         <v/>
       </c>
-      <c r="M26" s="108" t="n">
-        <v>43224</v>
+      <c r="M26" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N26" s="105" t="n">
         <v>7</v>
       </c>
       <c r="O26" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="137" t="n">
         <v>1</v>
@@ -15711,13 +15716,13 @@
         <v>1</v>
       </c>
       <c r="S26" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="104">
         <f>SUM(O26:U26)</f>
@@ -15773,17 +15778,17 @@
         <f>K27*J27</f>
         <v/>
       </c>
-      <c r="M27" s="108" t="n">
-        <v>43224</v>
+      <c r="M27" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N27" s="106" t="n">
         <v>7</v>
       </c>
       <c r="O27" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="137" t="n">
         <v>1</v>
@@ -15792,13 +15797,13 @@
         <v>1</v>
       </c>
       <c r="S27" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="104">
         <f>SUM(O27:U27)</f>
@@ -15854,17 +15859,17 @@
         <f>K28*J28</f>
         <v/>
       </c>
-      <c r="M28" s="108" t="n">
-        <v>43224</v>
+      <c r="M28" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N28" s="106" t="n">
         <v>7</v>
       </c>
       <c r="O28" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="137" t="n">
         <v>1</v>
@@ -15876,10 +15881,10 @@
         <v>1</v>
       </c>
       <c r="T28" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="104">
         <f>SUM(O28:U28)</f>
@@ -15932,17 +15937,17 @@
         <f>K29*J29</f>
         <v/>
       </c>
-      <c r="M29" s="108" t="n">
-        <v>43224</v>
+      <c r="M29" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N29" s="106" t="n">
         <v>7</v>
       </c>
       <c r="O29" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="137" t="n">
         <v>1</v>
@@ -15951,13 +15956,13 @@
         <v>1</v>
       </c>
       <c r="S29" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="137" t="n">
         <v>1</v>
       </c>
       <c r="U29" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="104">
         <f>SUM(O29:U29)</f>
@@ -17139,8 +17144,8 @@
         <f>K2*J2</f>
         <v/>
       </c>
-      <c r="M2" s="108" t="n">
-        <v>43224</v>
+      <c r="M2" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N2" s="114" t="n">
         <v>7</v>
@@ -17164,7 +17169,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="202" t="n">
         <v>1</v>
@@ -17232,8 +17237,8 @@
         <f>K3*J3</f>
         <v/>
       </c>
-      <c r="M3" s="108" t="n">
-        <v>43224</v>
+      <c r="M3" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N3" s="114" t="n">
         <v>7</v>
@@ -17245,7 +17250,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="137" t="n">
         <v>1</v>
@@ -17254,10 +17259,10 @@
         <v>1</v>
       </c>
       <c r="T3" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="202" t="n">
         <v>1</v>
@@ -17325,8 +17330,8 @@
         <f>K4*J4</f>
         <v/>
       </c>
-      <c r="M4" s="108" t="n">
-        <v>43224</v>
+      <c r="M4" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N4" s="114" t="n">
         <v>7</v>
@@ -17347,7 +17352,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="202" t="n">
         <v>1</v>
@@ -17418,8 +17423,8 @@
         <f>K5*J5</f>
         <v/>
       </c>
-      <c r="M5" s="108" t="n">
-        <v>43224</v>
+      <c r="M5" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N5" s="114" t="n">
         <v>7</v>
@@ -17431,31 +17436,31 @@
         <v>1</v>
       </c>
       <c r="Q5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="202" t="n">
         <v>0</v>
       </c>
       <c r="V5" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="202" t="n">
         <v>0</v>
       </c>
       <c r="Y5" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="104">
         <f>COUNTIF(O5:T5, "=1")</f>
@@ -17511,8 +17516,8 @@
         <f>K6*J6</f>
         <v/>
       </c>
-      <c r="M6" s="108" t="n">
-        <v>43224</v>
+      <c r="M6" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N6" s="114" t="n">
         <v>7</v>
@@ -17604,8 +17609,8 @@
         <f>K7*J7</f>
         <v/>
       </c>
-      <c r="M7" s="108" t="n">
-        <v>43224</v>
+      <c r="M7" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N7" s="114" t="n">
         <v>7</v>
@@ -17697,8 +17702,8 @@
         <f>K8*J8</f>
         <v/>
       </c>
-      <c r="M8" s="108" t="n">
-        <v>43224</v>
+      <c r="M8" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N8" s="114" t="n">
         <v>7</v>
@@ -17713,13 +17718,13 @@
         <v>1</v>
       </c>
       <c r="R8" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="137" t="n">
         <v>1</v>
       </c>
       <c r="T8" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="202" t="n">
         <v>1</v>
@@ -17790,8 +17795,8 @@
         <f>K9*J9</f>
         <v/>
       </c>
-      <c r="M9" s="108" t="n">
-        <v>43224</v>
+      <c r="M9" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N9" s="114" t="n">
         <v>7</v>
@@ -17803,7 +17808,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="137" t="n">
         <v>1</v>
@@ -17883,8 +17888,8 @@
         <f>K10*J10</f>
         <v/>
       </c>
-      <c r="M10" s="108" t="n">
-        <v>43224</v>
+      <c r="M10" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N10" s="114" t="n">
         <v>7</v>
@@ -17902,16 +17907,16 @@
         <v>1</v>
       </c>
       <c r="S10" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="202" t="n">
         <v>1</v>
       </c>
       <c r="U10" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="202" t="n">
         <v>1</v>
@@ -17976,8 +17981,8 @@
         <f>K11*J11</f>
         <v/>
       </c>
-      <c r="M11" s="108" t="n">
-        <v>43224</v>
+      <c r="M11" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N11" s="114" t="n">
         <v>7</v>
@@ -18001,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="202" t="n">
         <v>1</v>
@@ -18069,8 +18074,8 @@
         <f>K12*J12</f>
         <v/>
       </c>
-      <c r="M12" s="108" t="n">
-        <v>43224</v>
+      <c r="M12" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N12" s="114" t="n">
         <v>7</v>
@@ -18091,7 +18096,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="202" t="n">
         <v>1</v>
@@ -18162,8 +18167,8 @@
         <f>K13*J13</f>
         <v/>
       </c>
-      <c r="M13" s="108" t="n">
-        <v>43224</v>
+      <c r="M13" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N13" s="114" t="n">
         <v>7</v>
@@ -18255,8 +18260,8 @@
         <f>K14*J14</f>
         <v/>
       </c>
-      <c r="M14" s="108" t="n">
-        <v>43224</v>
+      <c r="M14" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N14" s="114" t="n">
         <v>7</v>
@@ -18268,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="137" t="n">
         <v>1</v>
@@ -18348,8 +18353,8 @@
         <f>K15*J15</f>
         <v/>
       </c>
-      <c r="M15" s="108" t="n">
-        <v>43224</v>
+      <c r="M15" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N15" s="114" t="n">
         <v>7</v>
@@ -19600,8 +19605,8 @@
         <f>K2*J2</f>
         <v/>
       </c>
-      <c r="M2" s="118" t="n">
-        <v>43224</v>
+      <c r="M2" s="257" t="n">
+        <v>43234</v>
       </c>
       <c r="N2" s="119" t="n">
         <v>11</v>
@@ -19706,8 +19711,8 @@
         <f>K3*J3</f>
         <v/>
       </c>
-      <c r="M3" s="118" t="n">
-        <v>43224</v>
+      <c r="M3" s="257" t="n">
+        <v>43234</v>
       </c>
       <c r="N3" s="122" t="n">
         <v>11</v>
@@ -19719,13 +19724,13 @@
         <v>1</v>
       </c>
       <c r="Q3" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="137" t="n">
         <v>1</v>
@@ -19814,8 +19819,8 @@
         <f>K4*J4</f>
         <v/>
       </c>
-      <c r="M4" s="118" t="n">
-        <v>43224</v>
+      <c r="M4" s="257" t="n">
+        <v>43234</v>
       </c>
       <c r="N4" s="122" t="n">
         <v>11</v>
@@ -19842,7 +19847,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="137" t="n">
         <v>1</v>
@@ -21077,14 +21082,14 @@
         <f>K2*J2</f>
         <v/>
       </c>
-      <c r="M2" s="111" t="n">
-        <v>43224</v>
+      <c r="M2" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N2" s="105" t="n">
         <v>10</v>
       </c>
       <c r="O2" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="137" t="n">
         <v>1</v>
@@ -21167,8 +21172,8 @@
         <f>K3*J3</f>
         <v/>
       </c>
-      <c r="M3" s="111" t="n">
-        <v>43224</v>
+      <c r="M3" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N3" s="105" t="n">
         <v>10</v>
@@ -21192,10 +21197,10 @@
         <v>1</v>
       </c>
       <c r="U3" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="202" t="n">
         <v>1</v>
@@ -21257,14 +21262,14 @@
         <f>K4*J4</f>
         <v/>
       </c>
-      <c r="M4" s="111" t="n">
-        <v>43224</v>
+      <c r="M4" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N4" s="105" t="n">
         <v>10</v>
       </c>
       <c r="O4" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="137" t="n">
         <v>1</v>
@@ -21347,14 +21352,14 @@
         <f>K5*J5</f>
         <v/>
       </c>
-      <c r="M5" s="111" t="n">
-        <v>43224</v>
+      <c r="M5" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N5" s="105" t="n">
         <v>10</v>
       </c>
       <c r="O5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="137" t="n">
         <v>1</v>
@@ -21437,8 +21442,8 @@
         <f>K6*J6</f>
         <v/>
       </c>
-      <c r="M6" s="111" t="n">
-        <v>43224</v>
+      <c r="M6" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N6" s="105" t="n">
         <v>10</v>
@@ -21465,7 +21470,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="202" t="n">
         <v>1</v>
@@ -21527,8 +21532,8 @@
         <f>K7*J7</f>
         <v/>
       </c>
-      <c r="M7" s="111" t="n">
-        <v>43224</v>
+      <c r="M7" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N7" s="105" t="n">
         <v>10</v>
@@ -21615,14 +21620,14 @@
         <f>K8*J8</f>
         <v/>
       </c>
-      <c r="M8" s="111" t="n">
-        <v>43224</v>
+      <c r="M8" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N8" s="105" t="n">
         <v>10</v>
       </c>
       <c r="O8" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="137" t="n">
         <v>1</v>
@@ -21634,7 +21639,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="137" t="n">
         <v>1</v>
@@ -21705,8 +21710,8 @@
         <f>K9*J9</f>
         <v/>
       </c>
-      <c r="M9" s="111" t="n">
-        <v>43224</v>
+      <c r="M9" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N9" s="105" t="n">
         <v>10</v>
@@ -21793,14 +21798,14 @@
         <f>K10*J10</f>
         <v/>
       </c>
-      <c r="M10" s="111" t="n">
-        <v>43224</v>
+      <c r="M10" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N10" s="105" t="n">
         <v>10</v>
       </c>
       <c r="O10" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="137" t="n">
         <v>1</v>
@@ -21883,8 +21888,8 @@
         <f>K11*J11</f>
         <v/>
       </c>
-      <c r="M11" s="111" t="n">
-        <v>43224</v>
+      <c r="M11" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N11" s="105" t="n">
         <v>10</v>
@@ -21968,8 +21973,8 @@
         <f>K12*J12</f>
         <v/>
       </c>
-      <c r="M12" s="111" t="n">
-        <v>43224</v>
+      <c r="M12" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N12" s="105" t="n">
         <v>10</v>
@@ -21993,16 +21998,16 @@
         <v>1</v>
       </c>
       <c r="U12" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="202" t="n">
         <v>1</v>
       </c>
       <c r="X12" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="104">
         <f>COUNTIF(O12:X12,"=1")</f>
@@ -23174,8 +23179,8 @@
         <f>K2*J2</f>
         <v/>
       </c>
-      <c r="M2" s="108" t="n">
-        <v>43224</v>
+      <c r="M2" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N2" s="114" t="n">
         <v>7</v>
@@ -23184,7 +23189,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="137" t="n">
         <v>1</v>
@@ -23255,8 +23260,8 @@
         <f>K3*J3</f>
         <v/>
       </c>
-      <c r="M3" s="108" t="n">
-        <v>43224</v>
+      <c r="M3" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N3" s="114" t="n">
         <v>7</v>
@@ -23334,14 +23339,14 @@
         <f>K4*J4</f>
         <v/>
       </c>
-      <c r="M4" s="108" t="n">
-        <v>43224</v>
+      <c r="M4" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N4" s="114" t="n">
         <v>5</v>
       </c>
       <c r="O4" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="137" t="n">
         <v>1</v>
@@ -23415,20 +23420,20 @@
         <f>K5*J5</f>
         <v/>
       </c>
-      <c r="M5" s="108" t="n">
-        <v>43224</v>
+      <c r="M5" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N5" s="114" t="n">
         <v>4</v>
       </c>
       <c r="O5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="137" t="n">
         <v>0</v>
       </c>
       <c r="Q5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="137" t="n">
         <v>1</v>
@@ -23496,8 +23501,8 @@
         <f>K6*J6</f>
         <v/>
       </c>
-      <c r="M6" s="108" t="n">
-        <v>43224</v>
+      <c r="M6" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N6" s="114" t="n">
         <v>4</v>
@@ -23506,7 +23511,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="137" t="n">
         <v>1</v>
@@ -23577,8 +23582,8 @@
         <f>K7*J7</f>
         <v/>
       </c>
-      <c r="M7" s="108" t="n">
-        <v>43224</v>
+      <c r="M7" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N7" s="114" t="n">
         <v>5</v>
@@ -23656,17 +23661,17 @@
         <f>K8*J8</f>
         <v/>
       </c>
-      <c r="M8" s="108" t="n">
-        <v>43224</v>
+      <c r="M8" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N8" s="114" t="n">
         <v>5</v>
       </c>
       <c r="O8" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="137" t="n">
         <v>1</v>
@@ -23737,8 +23742,8 @@
         <f>K9*J9</f>
         <v/>
       </c>
-      <c r="M9" s="108" t="n">
-        <v>43224</v>
+      <c r="M9" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N9" s="114" t="n">
         <v>5</v>
@@ -23747,7 +23752,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="137" t="n">
         <v>1</v>
@@ -23818,17 +23823,17 @@
         <f>K10*J10</f>
         <v/>
       </c>
-      <c r="M10" s="108" t="n">
-        <v>43224</v>
+      <c r="M10" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N10" s="114" t="n">
         <v>5</v>
       </c>
       <c r="O10" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="137" t="n">
         <v>1</v>
@@ -23899,8 +23904,8 @@
         <f>K11*J11</f>
         <v/>
       </c>
-      <c r="M11" s="108" t="n">
-        <v>43224</v>
+      <c r="M11" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N11" s="114" t="n">
         <v>5</v>
@@ -23909,7 +23914,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="137" t="n">
         <v>1</v>
@@ -23924,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="104">
         <f>COUNTIF(O11:U11,"=1")</f>
@@ -23980,17 +23985,17 @@
         <f>K12*J12</f>
         <v/>
       </c>
-      <c r="M12" s="108" t="n">
-        <v>43224</v>
+      <c r="M12" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N12" s="114" t="n">
         <v>7</v>
       </c>
       <c r="O12" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="137" t="n">
         <v>1</v>
@@ -24061,8 +24066,8 @@
         <f>K13*J13</f>
         <v/>
       </c>
-      <c r="M13" s="108" t="n">
-        <v>43224</v>
+      <c r="M13" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N13" s="114" t="n">
         <v>7</v>
@@ -24086,7 +24091,7 @@
         <v>1</v>
       </c>
       <c r="U13" s="202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="104">
         <f>COUNTIF(O13:U13,"=1")</f>
@@ -24140,8 +24145,8 @@
         <f>K14*J14</f>
         <v/>
       </c>
-      <c r="M14" s="108" t="n">
-        <v>43224</v>
+      <c r="M14" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N14" s="114" t="n">
         <v>5</v>
@@ -24219,8 +24224,8 @@
         <f>K15*J15</f>
         <v/>
       </c>
-      <c r="M15" s="108" t="n">
-        <v>43224</v>
+      <c r="M15" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N15" s="114" t="n">
         <v>5</v>
@@ -24229,7 +24234,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="137" t="n">
         <v>1</v>
@@ -24300,20 +24305,20 @@
         <f>K16*J16</f>
         <v/>
       </c>
-      <c r="M16" s="108" t="n">
-        <v>43224</v>
+      <c r="M16" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N16" s="114" t="n">
         <v>5</v>
       </c>
       <c r="O16" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="137" t="n">
         <v>1</v>
@@ -24381,8 +24386,8 @@
         <f>K17*J17</f>
         <v/>
       </c>
-      <c r="M17" s="108" t="n">
-        <v>43224</v>
+      <c r="M17" s="256" t="n">
+        <v>43234</v>
       </c>
       <c r="N17" s="114" t="n">
         <v>5</v>
@@ -25586,8 +25591,8 @@
         <f>J2*K2</f>
         <v/>
       </c>
-      <c r="M2" s="190" t="n">
-        <v>43224</v>
+      <c r="M2" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N2" s="239" t="n">
         <v>4</v>
@@ -25659,8 +25664,8 @@
         <f>J3*K3</f>
         <v/>
       </c>
-      <c r="M3" s="190" t="n">
-        <v>43224</v>
+      <c r="M3" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N3" s="239" t="n">
         <v>4</v>
@@ -25732,8 +25737,8 @@
         <f>J4*K4</f>
         <v/>
       </c>
-      <c r="M4" s="190" t="n">
-        <v>43224</v>
+      <c r="M4" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N4" s="239" t="n">
         <v>4</v>
@@ -25805,8 +25810,8 @@
         <f>J5*K5</f>
         <v/>
       </c>
-      <c r="M5" s="190" t="n">
-        <v>43224</v>
+      <c r="M5" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N5" s="239" t="n">
         <v>4</v>
@@ -25818,13 +25823,13 @@
         <v>1</v>
       </c>
       <c r="Q5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="239">
         <f>COUNTIF(O5:R5,"=1")</f>
@@ -25880,8 +25885,8 @@
         <f>J6*K6</f>
         <v/>
       </c>
-      <c r="M6" s="190" t="n">
-        <v>43224</v>
+      <c r="M6" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N6" s="239" t="n">
         <v>4</v>
@@ -25953,8 +25958,8 @@
         <f>J7*K7</f>
         <v/>
       </c>
-      <c r="M7" s="190" t="n">
-        <v>43224</v>
+      <c r="M7" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N7" s="239" t="n">
         <v>4</v>
@@ -26026,8 +26031,8 @@
         <f>J8*K8</f>
         <v/>
       </c>
-      <c r="M8" s="190" t="n">
-        <v>43224</v>
+      <c r="M8" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N8" s="239" t="n">
         <v>4</v>
@@ -26039,7 +26044,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="137" t="n">
         <v>1</v>
@@ -26101,8 +26106,8 @@
         <f>J9*K9</f>
         <v/>
       </c>
-      <c r="M9" s="190" t="n">
-        <v>43224</v>
+      <c r="M9" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N9" s="239" t="n">
         <v>4</v>
@@ -26174,14 +26179,14 @@
         <f>J10*K10</f>
         <v/>
       </c>
-      <c r="M10" s="190" t="n">
-        <v>43224</v>
+      <c r="M10" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N10" s="239" t="n">
         <v>4</v>
       </c>
       <c r="O10" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="137" t="n">
         <v>1</v>
@@ -26249,8 +26254,8 @@
         <f>J11*K11</f>
         <v/>
       </c>
-      <c r="M11" s="190" t="n">
-        <v>43224</v>
+      <c r="M11" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N11" s="239" t="n">
         <v>4</v>
@@ -26322,8 +26327,8 @@
         <f>J12*K12</f>
         <v/>
       </c>
-      <c r="M12" s="190" t="n">
-        <v>43224</v>
+      <c r="M12" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N12" s="239" t="n">
         <v>4</v>
@@ -26395,8 +26400,8 @@
         <f>J13*K13</f>
         <v/>
       </c>
-      <c r="M13" s="190" t="n">
-        <v>43224</v>
+      <c r="M13" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N13" s="239" t="n">
         <v>4</v>
@@ -26468,14 +26473,14 @@
         <f>J14*K14</f>
         <v/>
       </c>
-      <c r="M14" s="190" t="n">
-        <v>43224</v>
+      <c r="M14" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N14" s="239" t="n">
         <v>4</v>
       </c>
       <c r="O14" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="137" t="n">
         <v>1</v>
@@ -26543,8 +26548,8 @@
         <f>J15*K15</f>
         <v/>
       </c>
-      <c r="M15" s="190" t="n">
-        <v>43224</v>
+      <c r="M15" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N15" s="239" t="n">
         <v>4</v>
@@ -26616,14 +26621,14 @@
         <f>J16*K16</f>
         <v/>
       </c>
-      <c r="M16" s="190" t="n">
-        <v>43224</v>
+      <c r="M16" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N16" s="239" t="n">
         <v>4</v>
       </c>
       <c r="O16" s="137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="137" t="n">
         <v>1</v>
@@ -26635,7 +26640,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="239">
         <f>COUNTIF(O16:R16,"=1")</f>
@@ -26691,8 +26696,8 @@
         <f>J17*K17</f>
         <v/>
       </c>
-      <c r="M17" s="190" t="n">
-        <v>43224</v>
+      <c r="M17" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N17" s="239" t="n">
         <v>4</v>
@@ -26710,7 +26715,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="239">
         <f>COUNTIF(O17:R17,"=1")</f>
@@ -26764,8 +26769,8 @@
         <f>J18*K18</f>
         <v/>
       </c>
-      <c r="M18" s="190" t="n">
-        <v>43224</v>
+      <c r="M18" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N18" s="239" t="n">
         <v>4</v>
@@ -26783,7 +26788,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="239">
         <f>COUNTIF(O18:R18,"=1")</f>
@@ -26836,8 +26841,8 @@
         <f>J19*K19</f>
         <v/>
       </c>
-      <c r="M19" s="190" t="n">
-        <v>43224</v>
+      <c r="M19" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N19" s="239" t="n">
         <v>4</v>
@@ -26909,8 +26914,8 @@
         <f>J20*K20</f>
         <v/>
       </c>
-      <c r="M20" s="190" t="n">
-        <v>43224</v>
+      <c r="M20" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N20" s="239" t="n">
         <v>4</v>
@@ -26982,8 +26987,8 @@
         <f>J21*K21</f>
         <v/>
       </c>
-      <c r="M21" s="190" t="n">
-        <v>43224</v>
+      <c r="M21" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N21" s="239" t="n">
         <v>4</v>
@@ -27055,8 +27060,8 @@
         <f>J22*K22</f>
         <v/>
       </c>
-      <c r="M22" s="190" t="n">
-        <v>43224</v>
+      <c r="M22" s="258" t="n">
+        <v>43234</v>
       </c>
       <c r="N22" s="239" t="n">
         <v>4</v>
@@ -27266,21 +27271,39 @@
         <f>K2*J2</f>
         <v/>
       </c>
-      <c r="M2" s="256" t="n">
+      <c r="M2" s="259" t="n">
         <v>43204</v>
       </c>
       <c r="N2" s="208" t="n">
         <v>9</v>
       </c>
-      <c r="O2" s="216" t="n"/>
-      <c r="P2" s="216" t="n"/>
-      <c r="Q2" s="216" t="n"/>
-      <c r="R2" s="216" t="n"/>
-      <c r="S2" s="216" t="n"/>
-      <c r="T2" s="216" t="n"/>
-      <c r="U2" s="216" t="n"/>
-      <c r="V2" s="216" t="n"/>
-      <c r="W2" s="216" t="n"/>
+      <c r="O2" s="216" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="216" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="216" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="216" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="216" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="216" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="216" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="216" t="n">
+        <v>1</v>
+      </c>
       <c r="X2" s="217">
         <f>COUNTIF(O2:W2,"1")</f>
         <v/>
@@ -27334,8 +27357,8 @@
         <f>K3*J3</f>
         <v/>
       </c>
-      <c r="M3" s="256" t="n">
-        <v>43224</v>
+      <c r="M3" s="259" t="n">
+        <v>43231</v>
       </c>
       <c r="N3" s="208" t="n">
         <v>9</v>
@@ -27347,7 +27370,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="216" t="n">
         <v>1</v>
@@ -27418,8 +27441,8 @@
         <f>K4*J4</f>
         <v/>
       </c>
-      <c r="M4" s="256" t="n">
-        <v>43224</v>
+      <c r="M4" s="259" t="n">
+        <v>43229</v>
       </c>
       <c r="N4" s="208" t="n">
         <v>9</v>
@@ -27502,14 +27525,14 @@
         <f>K5*J5</f>
         <v/>
       </c>
-      <c r="M5" s="256" t="n">
-        <v>43221</v>
+      <c r="M5" s="259" t="n">
+        <v>43236</v>
       </c>
       <c r="N5" s="208" t="n">
         <v>9</v>
       </c>
       <c r="O5" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="216" t="n">
         <v>0</v>
@@ -27588,8 +27611,8 @@
         <f>K6*J6</f>
         <v/>
       </c>
-      <c r="M6" s="256" t="n">
-        <v>43224</v>
+      <c r="M6" s="259" t="n">
+        <v>43228</v>
       </c>
       <c r="N6" s="208" t="n">
         <v>9</v>
@@ -27598,7 +27621,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="216" t="n"/>
       <c r="R6" s="216" t="n">
@@ -27672,8 +27695,8 @@
         <f>K7*J7</f>
         <v/>
       </c>
-      <c r="M7" s="256" t="n">
-        <v>43222</v>
+      <c r="M7" s="259" t="n">
+        <v>43235</v>
       </c>
       <c r="N7" s="208" t="n">
         <v>9</v>
@@ -27703,7 +27726,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="217">
         <f>COUNTIF(O7:W7,"1")</f>
@@ -27757,7 +27780,9 @@
         <f>K8*J8</f>
         <v/>
       </c>
-      <c r="M8" s="256" t="n"/>
+      <c r="M8" s="259" t="n">
+        <v>43236</v>
+      </c>
       <c r="N8" s="208" t="n">
         <v>9</v>
       </c>
@@ -27823,8 +27848,8 @@
         <f>K9*J9</f>
         <v/>
       </c>
-      <c r="M9" s="256" t="n">
-        <v>43224</v>
+      <c r="M9" s="259" t="n">
+        <v>43232</v>
       </c>
       <c r="N9" s="208" t="n">
         <v>9</v>
@@ -28040,8 +28065,8 @@
         <f>K2*J2</f>
         <v/>
       </c>
-      <c r="M2" s="256" t="n">
-        <v>43227</v>
+      <c r="M2" s="259" t="n">
+        <v>43234</v>
       </c>
       <c r="N2" s="208">
         <f>7-COUNTIF(O2:U2,"х")</f>
@@ -28054,7 +28079,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="216" t="n">
         <v>1</v>
@@ -28119,7 +28144,7 @@
         <f>K3*J3</f>
         <v/>
       </c>
-      <c r="M3" s="256" t="n">
+      <c r="M3" s="259" t="n">
         <v>43161</v>
       </c>
       <c r="N3" s="208">
@@ -28201,15 +28226,15 @@
         <f>K4*J4</f>
         <v/>
       </c>
-      <c r="M4" s="256" t="n">
-        <v>43226</v>
+      <c r="M4" s="259" t="n">
+        <v>43233</v>
       </c>
       <c r="N4" s="208">
         <f>7-COUNTIF(O4:U4,"х")</f>
         <v/>
       </c>
       <c r="O4" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="216" t="n">
         <v>1</v>
@@ -28224,10 +28249,10 @@
         <v>0</v>
       </c>
       <c r="T4" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="217">
         <f>COUNTIF(O4:U4,"1")</f>
@@ -28283,8 +28308,8 @@
         <f>K5*J5</f>
         <v/>
       </c>
-      <c r="M5" s="256" t="n">
-        <v>43223</v>
+      <c r="M5" s="259" t="n">
+        <v>43230</v>
       </c>
       <c r="N5" s="208">
         <f>7-COUNTIF(O5:U5,"х")</f>
@@ -28303,13 +28328,13 @@
         <v>1</v>
       </c>
       <c r="S5" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="217">
         <f>COUNTIF(O5:U5,"1")</f>
@@ -28363,8 +28388,8 @@
         <f>K6*J6</f>
         <v/>
       </c>
-      <c r="M6" s="256" t="n">
-        <v>43224</v>
+      <c r="M6" s="259" t="n">
+        <v>43230</v>
       </c>
       <c r="N6" s="208">
         <f>7-COUNTIF(O6:U6,"х")</f>
@@ -28443,8 +28468,8 @@
         <f>K7*J7</f>
         <v/>
       </c>
-      <c r="M7" s="256" t="n">
-        <v>43224</v>
+      <c r="M7" s="259" t="n">
+        <v>43232</v>
       </c>
       <c r="N7" s="208">
         <f>7-COUNTIF(O7:U7,"х")</f>
@@ -28457,7 +28482,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="216" t="n">
         <v>1</v>
@@ -28525,8 +28550,8 @@
         <f>K8*J8</f>
         <v/>
       </c>
-      <c r="M8" s="256" t="n">
-        <v>43224</v>
+      <c r="M8" s="259" t="n">
+        <v>43231</v>
       </c>
       <c r="N8" s="208">
         <f>7-COUNTIF(O8:U8,"х")</f>
@@ -28544,8 +28569,8 @@
       <c r="R8" s="216" t="n">
         <v>1</v>
       </c>
-      <c r="S8" s="216" t="n">
-        <v>1</v>
+      <c r="S8" s="216" t="s">
+        <v>487</v>
       </c>
       <c r="T8" s="216" t="n">
         <v>1</v>
@@ -28605,15 +28630,15 @@
         <f>K9*J9</f>
         <v/>
       </c>
-      <c r="M9" s="256" t="n">
-        <v>43224</v>
+      <c r="M9" s="259" t="n">
+        <v>43230</v>
       </c>
       <c r="N9" s="208">
         <f>7-COUNTIF(O9:U9,"х")</f>
         <v/>
       </c>
       <c r="O9" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="216" t="n">
         <v>1</v>
@@ -28687,8 +28712,8 @@
         <f>K10*J10</f>
         <v/>
       </c>
-      <c r="M10" s="256" t="n">
-        <v>43227</v>
+      <c r="M10" s="259" t="n">
+        <v>43234</v>
       </c>
       <c r="N10" s="208">
         <f>7-COUNTIF(O10:U10,"х")</f>
@@ -28769,8 +28794,8 @@
         <f>K11*J11</f>
         <v/>
       </c>
-      <c r="M11" s="256" t="n">
-        <v>43224</v>
+      <c r="M11" s="259" t="n">
+        <v>43234</v>
       </c>
       <c r="N11" s="208">
         <f>7-COUNTIF(O11:U11,"х")</f>
@@ -28851,7 +28876,7 @@
         <f>K12*J12</f>
         <v/>
       </c>
-      <c r="M12" s="256" t="n">
+      <c r="M12" s="259" t="n">
         <v>43217</v>
       </c>
       <c r="N12" s="208">
@@ -28933,8 +28958,8 @@
         <f>K13*J13</f>
         <v/>
       </c>
-      <c r="M13" s="256" t="n">
-        <v>43227</v>
+      <c r="M13" s="259" t="n">
+        <v>43233</v>
       </c>
       <c r="N13" s="208">
         <f>7-COUNTIF(O13:U13,"х")</f>
@@ -29015,18 +29040,18 @@
         <f>K14*J14</f>
         <v/>
       </c>
-      <c r="M14" s="256" t="n">
-        <v>43227</v>
+      <c r="M14" s="259" t="n">
+        <v>43234</v>
       </c>
       <c r="N14" s="208">
         <f>7-COUNTIF(O14:U14,"х")</f>
         <v/>
       </c>
       <c r="O14" s="216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="216" t="n">
         <v>1</v>
@@ -29041,7 +29066,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="217">
         <f>COUNTIF(O14:U14,"1")</f>
@@ -29097,8 +29122,8 @@
         <f>K15*J15</f>
         <v/>
       </c>
-      <c r="M15" s="256" t="n">
-        <v>43227</v>
+      <c r="M15" s="259" t="n">
+        <v>43234</v>
       </c>
       <c r="N15" s="208">
         <f>7-COUNTIF(O15:U15,"х")</f>
@@ -29117,7 +29142,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="216" t="n">
         <v>0</v>
@@ -29179,8 +29204,8 @@
         <f>K16*J16</f>
         <v/>
       </c>
-      <c r="M16" s="256" t="n">
-        <v>43224</v>
+      <c r="M16" s="259" t="n">
+        <v>43233</v>
       </c>
       <c r="N16" s="208">
         <f>7-COUNTIF(O16:U16,"х")</f>
@@ -29261,8 +29286,8 @@
         <f>K17*J17</f>
         <v/>
       </c>
-      <c r="M17" s="256" t="n">
-        <v>43222</v>
+      <c r="M17" s="259" t="n">
+        <v>43232</v>
       </c>
       <c r="N17" s="208">
         <f>7-COUNTIF(O17:U17,"х")</f>
@@ -29343,8 +29368,8 @@
         <f>K18*J18</f>
         <v/>
       </c>
-      <c r="M18" s="256" t="n">
-        <v>43226</v>
+      <c r="M18" s="259" t="n">
+        <v>43235</v>
       </c>
       <c r="N18" s="208">
         <f>7-COUNTIF(O18:U18,"х")</f>
@@ -29363,10 +29388,10 @@
         <v>1</v>
       </c>
       <c r="S18" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="216" t="n">
         <v>0</v>
@@ -29425,8 +29450,8 @@
         <f>K19*J19</f>
         <v/>
       </c>
-      <c r="M19" s="256" t="n">
-        <v>43224</v>
+      <c r="M19" s="259" t="n">
+        <v>43231</v>
       </c>
       <c r="N19" s="208">
         <f>7-COUNTIF(O19:U19,"х")</f>
@@ -29505,15 +29530,15 @@
         <f>K20*J20</f>
         <v/>
       </c>
-      <c r="M20" s="256" t="n">
-        <v>43217</v>
+      <c r="M20" s="259" t="n">
+        <v>43235</v>
       </c>
       <c r="N20" s="208">
         <f>7-COUNTIF(O20:U20,"х")</f>
         <v/>
       </c>
       <c r="O20" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="216" t="n">
         <v>1</v>
@@ -29528,7 +29553,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="216" t="n">
         <v>1</v>
@@ -29755,8 +29780,8 @@
         <f>K2*J2</f>
         <v/>
       </c>
-      <c r="M2" s="256" t="n">
-        <v>43226</v>
+      <c r="M2" s="259" t="n">
+        <v>43233</v>
       </c>
       <c r="N2" s="208" t="n">
         <v>16</v>
@@ -29860,7 +29885,9 @@
         <f>K3*J3</f>
         <v/>
       </c>
-      <c r="M3" s="256" t="n"/>
+      <c r="M3" s="259" t="n">
+        <v>43234</v>
+      </c>
       <c r="N3" s="208" t="n">
         <v>16</v>
       </c>
@@ -29934,8 +29961,8 @@
         <f>K4*J4</f>
         <v/>
       </c>
-      <c r="M4" s="256" t="n">
-        <v>43216</v>
+      <c r="M4" s="259" t="n">
+        <v>43236</v>
       </c>
       <c r="N4" s="208" t="n">
         <v>16</v>
@@ -29986,7 +30013,7 @@
         <v>1</v>
       </c>
       <c r="AD4" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="217">
         <f>COUNTIF(O4:AD4,"1")</f>
@@ -30042,8 +30069,8 @@
         <f>K5*J5</f>
         <v/>
       </c>
-      <c r="M5" s="256" t="n">
-        <v>43224</v>
+      <c r="M5" s="259" t="n">
+        <v>43230</v>
       </c>
       <c r="N5" s="208" t="n">
         <v>16</v>
@@ -30094,7 +30121,7 @@
         <v>1</v>
       </c>
       <c r="AD5" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="217">
         <f>COUNTIF(O5:AD5,"1")</f>
@@ -30148,8 +30175,8 @@
         <f>K6*J6</f>
         <v/>
       </c>
-      <c r="M6" s="256" t="n">
-        <v>43226</v>
+      <c r="M6" s="259" t="n">
+        <v>43234</v>
       </c>
       <c r="N6" s="208" t="n">
         <v>16</v>
@@ -30252,8 +30279,8 @@
         <f>K7*J7</f>
         <v/>
       </c>
-      <c r="M7" s="256" t="n">
-        <v>43227</v>
+      <c r="M7" s="259" t="n">
+        <v>43233</v>
       </c>
       <c r="N7" s="208" t="n">
         <v>16</v>
@@ -30304,7 +30331,7 @@
         <v>1</v>
       </c>
       <c r="AD7" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="217">
         <f>COUNTIF(O7:AD7,"1")</f>
@@ -30358,8 +30385,8 @@
         <f>K8*J8</f>
         <v/>
       </c>
-      <c r="M8" s="256" t="n">
-        <v>43226</v>
+      <c r="M8" s="259" t="n">
+        <v>43234</v>
       </c>
       <c r="N8" s="208" t="n">
         <v>16</v>
@@ -30380,7 +30407,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="216" t="n">
         <v>0</v>
@@ -39586,7 +39613,7 @@
         <v/>
       </c>
       <c r="M8" s="252" t="n">
-        <v>43231</v>
+        <v>43237</v>
       </c>
       <c r="N8" s="52">
         <f>11-COUNTIF(O8:Y8,"х")</f>
@@ -39596,7 +39623,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="137" t="s">
         <v>56</v>
@@ -42574,7 +42601,7 @@
         <v/>
       </c>
       <c r="M3" s="252" t="n">
-        <v>43229</v>
+        <v>43236</v>
       </c>
       <c r="N3" s="52">
         <f>7-COUNTIF(O3:U3,"х")</f>
